--- a/data/trans_orig/P16B18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FEA1B2E-1E9A-4917-BB9D-9228C3868F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EC39E8-8160-4B6E-ACE3-CAEB93DEEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E7995E8-1284-4A52-972E-A0935C936A45}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11C8485D-FD34-4FC8-9B4A-C30F0EC0CA71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>94,14%</t>
   </si>
   <si>
-    <t>84,1%</t>
+    <t>84,61%</t>
   </si>
   <si>
     <t>98,12%</t>
@@ -94,7 +94,7 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>15,9%</t>
+    <t>15,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>89,78%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>89,07%</t>
   </si>
   <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -175,19 +175,13 @@
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>87,43%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>12,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -274,55 +268,61 @@
     <t>92,98%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>89,59%</t>
+    <t>87,21%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>10,41%</t>
+    <t>12,79%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>68,42%</t>
+    <t>71,48%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>31,58%</t>
+    <t>28,52%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70783D-43FF-4521-B208-3E8DC76F88D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEC0F4D-61F7-48B5-A126-706C2155EA06}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1759,7 +1759,7 @@
         <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -1774,7 +1774,7 @@
         <v>45</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1802,13 @@
         <v>18063</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -1817,13 +1817,13 @@
         <v>18063</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7421E7-9757-4D4F-A694-DF668957C324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EA5E80-45CD-42C0-9B3A-F3321B060EC5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1916,7 +1916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2036,10 +2036,10 @@
         <v>63317</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -2051,10 +2051,10 @@
         <v>63317</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -2085,13 +2085,13 @@
         <v>1891</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2100,13 +2100,13 @@
         <v>1891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,10 +2185,10 @@
         <v>96535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>35</v>
@@ -2200,10 +2200,10 @@
         <v>96535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>35</v>
@@ -2234,13 +2234,13 @@
         <v>969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2249,13 +2249,13 @@
         <v>969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,10 +2334,10 @@
         <v>49505</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>35</v>
@@ -2349,10 +2349,10 @@
         <v>49505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>35</v>
@@ -2383,13 +2383,13 @@
         <v>1064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2398,13 +2398,13 @@
         <v>1064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,7 +2486,7 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -2501,7 +2501,7 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>19</v>
@@ -2538,7 +2538,7 @@
         <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,7 +2635,7 @@
         <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -2650,7 +2650,7 @@
         <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -2687,7 +2687,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2918,13 @@
         <v>221064</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -2933,13 +2933,13 @@
         <v>221064</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2967,13 @@
         <v>3924</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2982,13 +2982,13 @@
         <v>3924</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,7 +3042,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ADDDAE-8402-4DF4-8E3A-234D8B576D57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061D77DA-13A3-42E8-872A-50374F73E616}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3081,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3204,7 +3204,7 @@
         <v>35</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -3219,7 +3219,7 @@
         <v>35</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -3256,7 +3256,7 @@
         <v>38</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3350,13 @@
         <v>58464</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3365,13 +3365,13 @@
         <v>58464</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3399,13 @@
         <v>4415</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3414,13 +3414,13 @@
         <v>4415</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4207,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EC39E8-8160-4B6E-ACE3-CAEB93DEEF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B319A4-5051-42D6-B1EC-32E7355E1362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11C8485D-FD34-4FC8-9B4A-C30F0EC0CA71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F76505B-7930-41BC-856D-EB5497965D75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="97">
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -79,10 +79,10 @@
     <t>94,14%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,10 +91,10 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>89,78%</t>
   </si>
   <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>89,07%</t>
   </si>
   <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -175,13 +175,19 @@
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,43%</t>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>12,57%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -193,37 +199,37 @@
     <t>97,1%</t>
   </si>
   <si>
-    <t>89,86%</t>
+    <t>90,26%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>10,14%</t>
+    <t>9,74%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>93,99%</t>
+    <t>94,87%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>6,01%</t>
+    <t>5,13%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>90,56%</t>
+    <t>89,46%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>9,44%</t>
+    <t>10,54%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -241,22 +247,22 @@
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>Porcentaje de anticonceptivos recetados en 2015 (Tasa respuesta: 2,31%)</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Porcentaje de anticonceptivos recetados en 2016 (Tasa respuesta: 2,31%)</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -268,61 +274,61 @@
     <t>92,98%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>87,21%</t>
+    <t>87,7%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>12,79%</t>
+    <t>12,3%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>71,48%</t>
+    <t>71,41%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>28,52%</t>
+    <t>28,59%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
 </sst>
 </file>
@@ -734,7 +740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEC0F4D-61F7-48B5-A126-706C2155EA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB3135E-9E81-4740-BB12-4EA778E1EF40}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1759,7 +1765,7 @@
         <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -1774,7 +1780,7 @@
         <v>45</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1808,13 @@
         <v>18063</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -1817,13 +1823,13 @@
         <v>18063</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1883,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EA5E80-45CD-42C0-9B3A-F3321B060EC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3608E8-C194-4CC9-9EE3-6BAEA05E30CA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1916,7 +1922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2036,10 +2042,10 @@
         <v>63317</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -2051,10 +2057,10 @@
         <v>63317</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -2085,13 +2091,13 @@
         <v>1891</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2100,13 +2106,13 @@
         <v>1891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,10 +2191,10 @@
         <v>96535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>35</v>
@@ -2200,10 +2206,10 @@
         <v>96535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>35</v>
@@ -2234,13 +2240,13 @@
         <v>969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2249,13 +2255,13 @@
         <v>969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,10 +2340,10 @@
         <v>49505</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>35</v>
@@ -2349,10 +2355,10 @@
         <v>49505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>35</v>
@@ -2383,13 +2389,13 @@
         <v>1064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2398,13 +2404,13 @@
         <v>1064</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,7 +2492,7 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -2501,7 +2507,7 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>19</v>
@@ -2538,7 +2544,7 @@
         <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2553,7 +2559,7 @@
         <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,7 +2641,7 @@
         <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -2650,7 +2656,7 @@
         <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -2687,7 +2693,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2702,7 +2708,7 @@
         <v>38</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2924,13 @@
         <v>221064</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -2933,13 +2939,13 @@
         <v>221064</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2973,13 @@
         <v>3924</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2982,13 +2988,13 @@
         <v>3924</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,7 +3048,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061D77DA-13A3-42E8-872A-50374F73E616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D34F7FA-0543-4719-AC8A-CC26C52835A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3081,7 +3087,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3204,7 +3210,7 @@
         <v>35</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -3219,7 +3225,7 @@
         <v>35</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -3256,7 +3262,7 @@
         <v>38</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3271,7 +3277,7 @@
         <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3356,13 @@
         <v>58464</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3365,13 +3371,13 @@
         <v>58464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3405,13 @@
         <v>4415</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3414,13 +3420,13 @@
         <v>4415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,10 +3505,10 @@
         <v>33304</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>35</v>
@@ -3514,10 +3520,10 @@
         <v>33304</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>35</v>
@@ -3548,13 +3554,13 @@
         <v>827</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3563,13 +3569,13 @@
         <v>827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,10 +3654,10 @@
         <v>15043</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>35</v>
@@ -3663,10 +3669,10 @@
         <v>15043</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>35</v>
@@ -3697,13 +3703,13 @@
         <v>1112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3712,13 +3718,13 @@
         <v>1112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4089,13 @@
         <v>143972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -4098,13 +4104,13 @@
         <v>143972</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4138,13 @@
         <v>6354</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -4147,13 +4153,13 @@
         <v>6354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4213,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B319A4-5051-42D6-B1EC-32E7355E1362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDC8A2FB-05C6-4684-9E7E-7B6B42DE51A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F76505B-7930-41BC-856D-EB5497965D75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA5D990E-B0F7-40B6-A1A4-3E3FAC6C6FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="95">
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2007 (Tasa respuesta: 3,19%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -79,10 +79,10 @@
     <t>94,14%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,10 +91,10 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>89,78%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>89,07%</t>
   </si>
   <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -175,19 +175,19 @@
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -199,37 +199,37 @@
     <t>97,1%</t>
   </si>
   <si>
-    <t>90,26%</t>
+    <t>89,86%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>9,74%</t>
+    <t>10,14%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,87%</t>
+    <t>93,99%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>6,01%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>89,46%</t>
+    <t>90,56%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>10,54%</t>
+    <t>9,44%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -247,19 +247,19 @@
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2016 (Tasa respuesta: 2,31%)</t>
@@ -274,61 +274,55 @@
     <t>92,98%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>97,26%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>87,7%</t>
+    <t>89,59%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>12,3%</t>
+    <t>10,41%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>71,41%</t>
+    <t>68,42%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>28,59%</t>
+    <t>31,58%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
 </sst>
 </file>
@@ -740,7 +734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB3135E-9E81-4740-BB12-4EA778E1EF40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00BCF33-D369-485D-AFBD-49F476FBDFDD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1905,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3608E8-C194-4CC9-9EE3-6BAEA05E30CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FB9281-1D8F-47DC-9A94-1265E1921AD2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3070,7 +3064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D34F7FA-0543-4719-AC8A-CC26C52835A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4465698B-1B56-4844-B69E-2B32D71FB785}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,10 +3353,10 @@
         <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3374,10 +3368,10 @@
         <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3399,13 @@
         <v>4415</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3420,13 +3414,13 @@
         <v>4415</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,10 +3499,10 @@
         <v>33304</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>35</v>
@@ -3520,10 +3514,10 @@
         <v>33304</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>35</v>
@@ -3554,13 +3548,13 @@
         <v>827</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3569,13 +3563,13 @@
         <v>827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,10 +3648,10 @@
         <v>15043</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>35</v>
@@ -3669,10 +3663,10 @@
         <v>15043</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>35</v>
@@ -3703,13 +3697,13 @@
         <v>1112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3718,13 +3712,13 @@
         <v>1112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4083,13 @@
         <v>143972</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -4104,13 +4098,13 @@
         <v>143972</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4132,13 @@
         <v>6354</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -4153,13 +4147,13 @@
         <v>6354</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
